--- a/tests/FRG.xlsx
+++ b/tests/FRG.xlsx
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B3" s="28" t="n">
-        <v>45265</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="18">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B11" s="30" t="n">
-        <v>4562.605375263121</v>
+        <v>4539.888998736316</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="18">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B17" s="31" t="n">
-        <v>248.9828071644409</v>
+        <v>246.6777894289741</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="18">
@@ -7276,7 +7276,7 @@
         <v>65.31899405745386</v>
       </c>
       <c r="D7" t="n">
-        <v>81.53008316124775</v>
+        <v>81.2351494668635</v>
       </c>
       <c r="E7" t="n">
         <v>91.55697965436164</v>
@@ -7353,7 +7353,7 @@
         <v>1652.97136</v>
       </c>
       <c r="C9" t="n">
-        <v>1214.7575884</v>
+        <v>1236.364452457454</v>
       </c>
       <c r="D9" t="n">
         <v>1288.287</v>
@@ -7396,7 +7396,7 @@
         <v>107.4431384</v>
       </c>
       <c r="D10" t="n">
-        <v>78.959243246</v>
+        <v>80.3636894097345</v>
       </c>
       <c r="E10" t="n">
         <v>83.73865500000001</v>
@@ -7433,34 +7433,34 @@
         <v>159.72</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>356.2246291927522</v>
+        <v>333.508252665948</v>
       </c>
       <c r="E11" t="n">
-        <v>794.3673903250575</v>
+        <v>771.6510137982533</v>
       </c>
       <c r="F11" t="n">
-        <v>1271.490048410524</v>
+        <v>1248.773671883719</v>
       </c>
       <c r="G11" t="n">
-        <v>1790.550128976421</v>
+        <v>1767.833752449617</v>
       </c>
       <c r="H11" t="n">
-        <v>2331.2486520798</v>
+        <v>2308.532275552996</v>
       </c>
       <c r="I11" t="n">
-        <v>2886.768758177607</v>
+        <v>2864.052381650803</v>
       </c>
       <c r="J11" t="n">
-        <v>3449.433854210771</v>
+        <v>3426.717477683967</v>
       </c>
       <c r="K11" t="n">
-        <v>4010.89871908329</v>
+        <v>3988.182342556486</v>
       </c>
       <c r="L11" t="n">
-        <v>4562.605375263121</v>
+        <v>4539.888998736316</v>
       </c>
     </row>
     <row r="12">
@@ -7556,31 +7556,31 @@
         <v>41.039</v>
       </c>
       <c r="D14" t="n">
-        <v>35.09446159236113</v>
+        <v>35.42421237766585</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49677677776506</v>
+        <v>29.7739312022838</v>
       </c>
       <c r="F14" t="n">
-        <v>24.82155809151685</v>
+        <v>25.05478373173997</v>
       </c>
       <c r="G14" t="n">
-        <v>20.91030082250336</v>
+        <v>21.10677593009354</v>
       </c>
       <c r="H14" t="n">
-        <v>17.72267944761617</v>
+        <v>17.88920337191616</v>
       </c>
       <c r="I14" t="n">
-        <v>15.11430972081164</v>
+        <v>15.25632516352358</v>
       </c>
       <c r="J14" t="n">
-        <v>12.97166712112061</v>
+        <v>13.09355009711794</v>
       </c>
       <c r="K14" t="n">
-        <v>11.20539278278882</v>
+        <v>11.31067968283281</v>
       </c>
       <c r="L14" t="n">
-        <v>11.20539278278882</v>
+        <v>11.31067968283281</v>
       </c>
     </row>
     <row r="15">
@@ -7593,34 +7593,34 @@
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>59.92469133263484</v>
+        <v>59.39819546145245</v>
       </c>
       <c r="D15" t="n">
-        <v>78.27213850802028</v>
+        <v>77.54353235397711</v>
       </c>
       <c r="E15" t="n">
-        <v>102.0535487439089</v>
+        <v>101.1035703087453</v>
       </c>
       <c r="F15" t="n">
-        <v>132.7092658102792</v>
+        <v>131.473924734757</v>
       </c>
       <c r="G15" t="n">
-        <v>169.6244501819211</v>
+        <v>168.0454794187028</v>
       </c>
       <c r="H15" t="n">
-        <v>212.9759828099084</v>
+        <v>210.993468792832</v>
       </c>
       <c r="I15" t="n">
-        <v>262.6033366994106</v>
+        <v>260.1588601482575</v>
       </c>
       <c r="J15" t="n">
-        <v>317.8808935212251</v>
+        <v>314.9218588035449</v>
       </c>
       <c r="K15" t="n">
-        <v>377.6376111635343</v>
+        <v>374.1223234412789</v>
       </c>
       <c r="L15" t="n">
-        <v>377.6376111635343</v>
+        <v>374.1223234412789</v>
       </c>
     </row>
     <row r="16">
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>356.2246291927522</v>
+        <v>333.5082526659482</v>
       </c>
       <c r="E17" t="n">
         <v>438.1427611323053</v>
@@ -7756,7 +7756,7 @@
         <v>311.0428288450184</v>
       </c>
       <c r="D19" t="n">
-        <v>388.2384912440369</v>
+        <v>386.8340450803025</v>
       </c>
       <c r="E19" t="n">
         <v>435.9856174017222</v>
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-438.2137716</v>
+        <v>-416.6069075425462</v>
       </c>
       <c r="D20" t="n">
-        <v>73.5294116</v>
+        <v>51.92254754254623</v>
       </c>
       <c r="E20" t="n">
         <v>126.6539266666668</v>
@@ -7833,10 +7833,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>16.95813</v>
+        <v>38.56499405745386</v>
       </c>
       <c r="D21" t="n">
-        <v>81.53008316124775</v>
+        <v>81.2351494668635</v>
       </c>
       <c r="E21" t="n">
         <v>91.55697965436164</v>
@@ -7876,7 +7876,7 @@
         <v>183.6428288450184</v>
       </c>
       <c r="D22" t="n">
-        <v>388.2384912440369</v>
+        <v>386.8340450803025</v>
       </c>
       <c r="E22" t="n">
         <v>435.9856174017222</v>
@@ -7913,10 +7913,10 @@
         <v>220</v>
       </c>
       <c r="C23" t="n">
-        <v>278.4937715999999</v>
+        <v>256.8869075425461</v>
       </c>
       <c r="D23" t="n">
-        <v>282.6952175927522</v>
+        <v>281.585705123402</v>
       </c>
       <c r="E23" t="n">
         <v>311.4888344656384</v>
@@ -7953,10 +7953,10 @@
         <v>-360.07136</v>
       </c>
       <c r="C24" t="n">
-        <v>-159.72</v>
+        <v>-159.7200000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>356.2246291927522</v>
+        <v>333.5082526659482</v>
       </c>
       <c r="E24" t="n">
         <v>438.1427611323053</v>
@@ -7993,10 +7993,10 @@
         <v>-304.77136</v>
       </c>
       <c r="C25" t="n">
-        <v>363.3738509359999</v>
+        <v>341.766986878546</v>
       </c>
       <c r="D25" t="n">
-        <v>345.0730197570923</v>
+        <v>345.0730197570922</v>
       </c>
       <c r="E25" t="n">
         <v>377.6423719156384</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>49.2358159035029</v>
+        <v>48.7774980505551</v>
       </c>
     </row>
     <row r="28">
@@ -8150,10 +8150,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4992.141527294425</v>
+        <v>4973.367662396239</v>
       </c>
       <c r="C29" t="n">
-        <v>5651.075680023868</v>
+        <v>5630.424428635863</v>
       </c>
       <c r="D29" t="n">
         <v>5859.958618833502</v>
@@ -8190,10 +8190,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6645.112887294425</v>
+        <v>6626.33902239624</v>
       </c>
       <c r="C30" t="n">
-        <v>6865.833268423868</v>
+        <v>6866.788881093317</v>
       </c>
       <c r="D30" t="n">
         <v>7148.245618833503</v>
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08789831594618072</v>
+        <v>0.0878640292336085</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09139245676887423</v>
+        <v>0.09124057377420373</v>
       </c>
       <c r="D31" t="n">
         <v>0.09123209163590161</v>
@@ -8270,10 +8270,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6660.1310498207</v>
+        <v>6641.359748607475</v>
       </c>
       <c r="C32" t="n">
-        <v>6882.171502144809</v>
+        <v>6883.129388831488</v>
       </c>
       <c r="D32" t="n">
         <v>7166.077043873464</v>
@@ -8310,37 +8310,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>247.6216628870463</v>
+        <v>245.3166451515794</v>
       </c>
       <c r="C33" t="n">
-        <v>272.3838291757509</v>
+        <v>269.8483096667374</v>
       </c>
       <c r="D33" t="n">
-        <v>299.622212093326</v>
+        <v>296.8331406334111</v>
       </c>
       <c r="E33" t="n">
-        <v>329.5844333026587</v>
+        <v>326.5164546967522</v>
       </c>
       <c r="F33" t="n">
-        <v>362.5428766329246</v>
+        <v>359.1681001664275</v>
       </c>
       <c r="G33" t="n">
-        <v>398.797164296217</v>
+        <v>395.0849101830703</v>
       </c>
       <c r="H33" t="n">
-        <v>438.6768807258388</v>
+        <v>434.5934012013773</v>
       </c>
       <c r="I33" t="n">
-        <v>482.5445687984227</v>
+        <v>478.0527413215151</v>
       </c>
       <c r="J33" t="n">
-        <v>530.799025678265</v>
+        <v>525.8580154536667</v>
       </c>
       <c r="K33" t="n">
-        <v>583.8789282460916</v>
+        <v>578.4438169990334</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0310051671979</v>
+        <v>587.5107006483817</v>
       </c>
     </row>
     <row r="34">
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.8968914275305</v>
+        <v>126.4394274323507</v>
       </c>
       <c r="C34" t="n">
-        <v>139.0612753727885</v>
+        <v>138.5580649780907</v>
       </c>
       <c r="D34" t="n">
         <v>144.1511396192281</v>
@@ -8390,37 +8390,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.9828071644409</v>
+        <v>246.6777894289741</v>
       </c>
       <c r="C35" t="n">
-        <v>273.7449734531456</v>
+        <v>271.209453944132</v>
       </c>
       <c r="D35" t="n">
-        <v>301.2139162388074</v>
+        <v>298.4100281984602</v>
       </c>
       <c r="E35" t="n">
-        <v>331.478199540945</v>
+        <v>328.3925925712065</v>
       </c>
       <c r="F35" t="n">
-        <v>364.7933397099822</v>
+        <v>361.3976145217733</v>
       </c>
       <c r="G35" t="n">
-        <v>401.4685749312991</v>
+        <v>397.7314536525708</v>
       </c>
       <c r="H35" t="n">
-        <v>441.8287743300259</v>
+        <v>437.7159550031689</v>
       </c>
       <c r="I35" t="n">
-        <v>486.2404041380336</v>
+        <v>481.714173507921</v>
       </c>
       <c r="J35" t="n">
-        <v>535.1053341487506</v>
+        <v>530.1242381041834</v>
       </c>
       <c r="K35" t="n">
-        <v>588.8640279282553</v>
+        <v>583.3825122469223</v>
       </c>
       <c r="L35" t="n">
-        <v>598.0161048493616</v>
+        <v>592.4493958962705</v>
       </c>
     </row>
   </sheetData>
